--- a/data/trans_orig/P11_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P11_R-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>66126</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>52492</v>
+        <v>52869</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>79357</v>
+        <v>81081</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2422104468099701</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1922722952512899</v>
+        <v>0.1936534431299428</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2906730106973082</v>
+        <v>0.2969906236665646</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>86</v>
@@ -765,19 +765,19 @@
         <v>91706</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>77563</v>
+        <v>77257</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>107637</v>
+        <v>109539</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3515834178381201</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2973622058808358</v>
+        <v>0.2961884111433465</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4126585626198588</v>
+        <v>0.4199498056181711</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>151</v>
@@ -786,19 +786,19 @@
         <v>157832</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>138162</v>
+        <v>137204</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>179242</v>
+        <v>180983</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2956500688061828</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2588036619183977</v>
+        <v>0.2570097957175594</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3357550783433869</v>
+        <v>0.3390160784375448</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>206884</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>193653</v>
+        <v>191929</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>220518</v>
+        <v>220141</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7577895531900299</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7093269893026917</v>
+        <v>0.7030093763334353</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8077277047487103</v>
+        <v>0.8063465568700572</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>159</v>
@@ -836,19 +836,19 @@
         <v>169132</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>153201</v>
+        <v>151299</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>183275</v>
+        <v>183581</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6484165821618799</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5873414373801412</v>
+        <v>0.5800501943818288</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7026377941191642</v>
+        <v>0.7038115888566536</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>365</v>
@@ -857,19 +857,19 @@
         <v>376016</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>354606</v>
+        <v>352865</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>395686</v>
+        <v>396644</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7043499311938173</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6642449216566125</v>
+        <v>0.6609839215624552</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7411963380816021</v>
+        <v>0.7429902042824407</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>107389</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>90510</v>
+        <v>91288</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>128088</v>
+        <v>129005</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2177942214443155</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1835622968568698</v>
+        <v>0.1851392323669106</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.259774272261817</v>
+        <v>0.2616333487502703</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>208</v>
@@ -982,19 +982,19 @@
         <v>210376</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>190730</v>
+        <v>189410</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>234954</v>
+        <v>234565</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4174541213890323</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3784703515069233</v>
+        <v>0.375851921282016</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4662266765261303</v>
+        <v>0.4654548229620012</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>308</v>
@@ -1003,19 +1003,19 @@
         <v>317764</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>289398</v>
+        <v>288648</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>346917</v>
+        <v>347892</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3187129573792454</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2902621804708662</v>
+        <v>0.2895098495315683</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3479527834919402</v>
+        <v>0.3489300840053434</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>385686</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>364987</v>
+        <v>364070</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>402565</v>
+        <v>401787</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7822057785556845</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7402257277381831</v>
+        <v>0.7383666512497297</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8164377031431302</v>
+        <v>0.8148607676330893</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>291</v>
@@ -1053,19 +1053,19 @@
         <v>293573</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>268995</v>
+        <v>269384</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>313219</v>
+        <v>314539</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5825458786109677</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5337733234738697</v>
+        <v>0.5345451770379989</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6215296484930768</v>
+        <v>0.6241480787179842</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>656</v>
@@ -1074,19 +1074,19 @@
         <v>679260</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>650107</v>
+        <v>649132</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>707626</v>
+        <v>708376</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6812870426207546</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6520472165080594</v>
+        <v>0.6510699159946567</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7097378195291337</v>
+        <v>0.7104901504684319</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>41305</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>29988</v>
+        <v>30409</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54843</v>
+        <v>54635</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1295450915254158</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09405136741922078</v>
+        <v>0.09537362485460185</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.172004149498703</v>
+        <v>0.1713515433103513</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>90</v>
@@ -1199,19 +1199,19 @@
         <v>90117</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>74888</v>
+        <v>76792</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>107110</v>
+        <v>104981</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2686765985229073</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2232716001342318</v>
+        <v>0.2289494612618116</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3193387778036818</v>
+        <v>0.3129917753401569</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>132</v>
@@ -1220,19 +1220,19 @@
         <v>131422</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>111602</v>
+        <v>112106</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>150774</v>
+        <v>151600</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.200872279678554</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1705780934032614</v>
+        <v>0.1713487952685327</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2304499029802909</v>
+        <v>0.2317128398043403</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>277541</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>264003</v>
+        <v>264211</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>288858</v>
+        <v>288437</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8704549084745842</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8279958505012969</v>
+        <v>0.8286484566896485</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9059486325807792</v>
+        <v>0.904626375145397</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>245</v>
@@ -1270,19 +1270,19 @@
         <v>245295</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>228302</v>
+        <v>230431</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>260524</v>
+        <v>258620</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7313234014770926</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6806612221963184</v>
+        <v>0.6870082246598431</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7767283998657684</v>
+        <v>0.7710505387381885</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>513</v>
@@ -1291,19 +1291,19 @@
         <v>522836</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>503484</v>
+        <v>502658</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>542656</v>
+        <v>542152</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.799127720321446</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7695500970197093</v>
+        <v>0.7682871601956597</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8294219065967388</v>
+        <v>0.8286512047314673</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>74943</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>62632</v>
+        <v>61555</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>90523</v>
+        <v>91032</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2089472068845247</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1746230642898327</v>
+        <v>0.171618584800266</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.252383506774675</v>
+        <v>0.2538028980530158</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>132</v>
@@ -1416,19 +1416,19 @@
         <v>129381</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>112525</v>
+        <v>110770</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>147679</v>
+        <v>148075</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3483068111707456</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3029284163407328</v>
+        <v>0.2982036939801073</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3975669948699993</v>
+        <v>0.3986333637369697</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>208</v>
@@ -1437,19 +1437,19 @@
         <v>204324</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>181460</v>
+        <v>183112</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>228597</v>
+        <v>229099</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2798471336579534</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2485325157061826</v>
+        <v>0.2507942790011901</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3130920801287461</v>
+        <v>0.3137797955241389</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>283728</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>268148</v>
+        <v>267639</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>296039</v>
+        <v>297116</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7910527931154753</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.747616493225325</v>
+        <v>0.7461971019469842</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8253769357101672</v>
+        <v>0.8283814151997341</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>252</v>
@@ -1487,19 +1487,19 @@
         <v>242075</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>223777</v>
+        <v>223381</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>258931</v>
+        <v>260686</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6516931888292544</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6024330051300008</v>
+        <v>0.6013666362630304</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6970715836592674</v>
+        <v>0.7017963060198927</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>538</v>
@@ -1508,19 +1508,19 @@
         <v>525803</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>501530</v>
+        <v>501028</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>548667</v>
+        <v>547015</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7201528663420466</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.686907919871254</v>
+        <v>0.6862202044758612</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7514674842938174</v>
+        <v>0.74920572099881</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>30885</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21661</v>
+        <v>23122</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>41912</v>
+        <v>41658</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1519102696324156</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1065404361826855</v>
+        <v>0.1137296698444957</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2061511880853349</v>
+        <v>0.2048994609242768</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>44</v>
@@ -1633,19 +1633,19 @@
         <v>47717</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>35639</v>
+        <v>36221</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>61902</v>
+        <v>61964</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2297772179379045</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1716153777959433</v>
+        <v>0.1744179860571047</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2980838091391796</v>
+        <v>0.2983824846950809</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>77</v>
@@ -1654,19 +1654,19 @@
         <v>78602</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>63320</v>
+        <v>65435</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>94221</v>
+        <v>95725</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1912567804039711</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1540717360865143</v>
+        <v>0.1592176276485002</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2292624750896411</v>
+        <v>0.2329210482241734</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>172423</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>161396</v>
+        <v>161650</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>181647</v>
+        <v>180186</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8480897303675844</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7938488119146651</v>
+        <v>0.7951005390757233</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8934595638173141</v>
+        <v>0.8862703301555043</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>154</v>
@@ -1704,19 +1704,19 @@
         <v>159951</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>145766</v>
+        <v>145704</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>172029</v>
+        <v>171447</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7702227820620956</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7019161908608206</v>
+        <v>0.7016175153049197</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8283846222040567</v>
+        <v>0.8255820139428954</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>327</v>
@@ -1725,19 +1725,19 @@
         <v>332374</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>316755</v>
+        <v>315251</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>347656</v>
+        <v>345541</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8087432195960289</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7707375249103589</v>
+        <v>0.7670789517758266</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8459282639134857</v>
+        <v>0.8407823723514999</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>51840</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>40140</v>
+        <v>40472</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>65989</v>
+        <v>64574</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1914239864765001</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1482201409802739</v>
+        <v>0.1494478488698624</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2436729358585743</v>
+        <v>0.2384479494193733</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>79</v>
@@ -1850,19 +1850,19 @@
         <v>82163</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>67200</v>
+        <v>66375</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>97271</v>
+        <v>99140</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2953962814654608</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2415997009794224</v>
+        <v>0.2386341056751985</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3497151277922653</v>
+        <v>0.3564342521917109</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>132</v>
@@ -1871,19 +1871,19 @@
         <v>134002</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>116202</v>
+        <v>115025</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>156324</v>
+        <v>154099</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2441045701433173</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2116789177196949</v>
+        <v>0.2095346930634071</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2847672179839475</v>
+        <v>0.2807136145207315</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>218971</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>204822</v>
+        <v>206237</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>230671</v>
+        <v>230339</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8085760135234998</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7563270641414259</v>
+        <v>0.7615520505806269</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8517798590197263</v>
+        <v>0.8505521511301376</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>191</v>
@@ -1921,19 +1921,19 @@
         <v>195981</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>180873</v>
+        <v>179004</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>210944</v>
+        <v>211769</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7046037185345392</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6502848722077348</v>
+        <v>0.6435657478082891</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7584002990205776</v>
+        <v>0.7613658943248015</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>404</v>
@@ -1942,19 +1942,19 @@
         <v>414953</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>392631</v>
+        <v>394856</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>432753</v>
+        <v>433930</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7558954298566827</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7152327820160524</v>
+        <v>0.7192863854792685</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7883210822803052</v>
+        <v>0.7904653069365929</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>86053</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>70721</v>
+        <v>71464</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>103650</v>
+        <v>105578</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1399177678597663</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1149884212423986</v>
+        <v>0.1161962682158208</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1685285385641694</v>
+        <v>0.1716641854426714</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>132</v>
@@ -2067,19 +2067,19 @@
         <v>131406</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>111114</v>
+        <v>112027</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>151718</v>
+        <v>153545</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2058954812360794</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1741002844208049</v>
+        <v>0.175531060897668</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2377203919272077</v>
+        <v>0.2405828050622545</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>222</v>
@@ -2088,19 +2088,19 @@
         <v>217460</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>191844</v>
+        <v>191885</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>245107</v>
+        <v>244227</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1735171021996075</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1530776978654445</v>
+        <v>0.1531100523049544</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1955779141429444</v>
+        <v>0.1948758719982525</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>528974</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>511377</v>
+        <v>509449</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>544306</v>
+        <v>543563</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8600822321402337</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8314714614358308</v>
+        <v>0.8283358145573285</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8850115787576015</v>
+        <v>0.8838037317841788</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>489</v>
@@ -2138,19 +2138,19 @@
         <v>506813</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>486501</v>
+        <v>484674</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>527105</v>
+        <v>526192</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7941045187639206</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7622796080727925</v>
+        <v>0.7594171949377457</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8258997155791952</v>
+        <v>0.824468939102332</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>997</v>
@@ -2159,19 +2159,19 @@
         <v>1035786</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1008139</v>
+        <v>1009019</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1061402</v>
+        <v>1061361</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8264828978003925</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8044220858570554</v>
+        <v>0.8051241280017475</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8469223021345553</v>
+        <v>0.8468899476950454</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>137143</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>117014</v>
+        <v>116084</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>158655</v>
+        <v>158447</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.18438285866801</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1573205236732077</v>
+        <v>0.1560696560324494</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.213304904270779</v>
+        <v>0.2130249671602194</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>188</v>
@@ -2284,19 +2284,19 @@
         <v>203839</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>178651</v>
+        <v>179413</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>229411</v>
+        <v>232051</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2601615364313293</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.228012934176133</v>
+        <v>0.2289858076259828</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2927983590831914</v>
+        <v>0.2961680634318948</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>329</v>
@@ -2305,19 +2305,19 @@
         <v>340982</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>309143</v>
+        <v>309318</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>372003</v>
+        <v>374748</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2232574692344693</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.20241055862532</v>
+        <v>0.2025252352184645</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2435683599973405</v>
+        <v>0.2453655944231802</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>606652</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>585140</v>
+        <v>585348</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>626781</v>
+        <v>627711</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.81561714133199</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7866950957292209</v>
+        <v>0.7869750328397809</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8426794763267922</v>
+        <v>0.8439303439675508</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>557</v>
@@ -2355,19 +2355,19 @@
         <v>579672</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>554100</v>
+        <v>551460</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>604860</v>
+        <v>604098</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7398384635686707</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7072016409168086</v>
+        <v>0.7038319365681053</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.771987065823867</v>
+        <v>0.7710141923740172</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1152</v>
@@ -2376,19 +2376,19 @@
         <v>1186324</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1155303</v>
+        <v>1152558</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1218163</v>
+        <v>1217988</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7767425307655308</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7564316400026595</v>
+        <v>0.7546344055768196</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.79758944137468</v>
+        <v>0.7974747647815355</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>595684</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>552447</v>
+        <v>549507</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>640703</v>
+        <v>638471</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1818024517021065</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1686066687995799</v>
+        <v>0.1677094434853398</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1955425101857123</v>
+        <v>0.1948612947337807</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>959</v>
@@ -2501,19 +2501,19 @@
         <v>986706</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>933981</v>
+        <v>937705</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1037491</v>
+        <v>1039754</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2919941708547434</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2763915148759407</v>
+        <v>0.2774934538337981</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3070229447498261</v>
+        <v>0.3076926647884504</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1559</v>
@@ -2522,19 +2522,19 @@
         <v>1582390</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1510132</v>
+        <v>1511411</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1650065</v>
+        <v>1653031</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2377480754111515</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2268916521119225</v>
+        <v>0.2270837719820155</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2479160208090878</v>
+        <v>0.2483616620316756</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>2680859</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2635840</v>
+        <v>2638072</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2724096</v>
+        <v>2727036</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8181975482978935</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8044574898142877</v>
+        <v>0.8051387052662196</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8313933312004204</v>
+        <v>0.8322905565146602</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2338</v>
@@ -2572,19 +2572,19 @@
         <v>2392491</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2341706</v>
+        <v>2339443</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2445216</v>
+        <v>2441492</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7080058291452566</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6929770552501739</v>
+        <v>0.6923073352115495</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7236084851240593</v>
+        <v>0.7225065461662019</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4952</v>
@@ -2593,19 +2593,19 @@
         <v>5073351</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5005676</v>
+        <v>5002710</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5145609</v>
+        <v>5144330</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7622519245888485</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7520839791909122</v>
+        <v>0.7516383379683245</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7731083478880776</v>
+        <v>0.7729162280179847</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>60083</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>46147</v>
+        <v>45382</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>74523</v>
+        <v>73816</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2060023951574427</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1582223260632409</v>
+        <v>0.1555999727256267</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2555133911580696</v>
+        <v>0.2530905544007667</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>95</v>
@@ -2962,19 +2962,19 @@
         <v>105076</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>86735</v>
+        <v>88386</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>123214</v>
+        <v>122631</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3670067579722007</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3029442314503785</v>
+        <v>0.308710068750128</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.430357725193102</v>
+        <v>0.4283207440196155</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>152</v>
@@ -2983,19 +2983,19 @@
         <v>165159</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>142236</v>
+        <v>142947</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>189123</v>
+        <v>187228</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2857589169003278</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2460970565731772</v>
+        <v>0.2473275091699271</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3272212009238958</v>
+        <v>0.3239431414141777</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>231577</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>217137</v>
+        <v>217844</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>245513</v>
+        <v>246278</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7939976048425573</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7444866088419302</v>
+        <v>0.7469094455992333</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8417776739367588</v>
+        <v>0.8444000272743731</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>160</v>
@@ -3033,19 +3033,19 @@
         <v>181230</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>163092</v>
+        <v>163675</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>199571</v>
+        <v>197920</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6329932420277993</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5696422748068981</v>
+        <v>0.5716792559803845</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6970557685496218</v>
+        <v>0.691289931249872</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>382</v>
@@ -3054,19 +3054,19 @@
         <v>412807</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>388843</v>
+        <v>390738</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>435730</v>
+        <v>435019</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7142410830996722</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6727787990761042</v>
+        <v>0.676056858585822</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7539029434268227</v>
+        <v>0.7526724908300728</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>71639</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>55496</v>
+        <v>56302</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>90430</v>
+        <v>89778</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1419768767431234</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1099835768583345</v>
+        <v>0.1115822966217921</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1792188132091099</v>
+        <v>0.1779252167608277</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>140</v>
@@ -3179,19 +3179,19 @@
         <v>152155</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>131895</v>
+        <v>132532</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>174283</v>
+        <v>174666</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2905033703356623</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2518203619998896</v>
+        <v>0.2530375340939018</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3327496351445274</v>
+        <v>0.3334809272593952</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>202</v>
@@ -3200,19 +3200,19 @@
         <v>223794</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>197121</v>
+        <v>196388</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>253161</v>
+        <v>251304</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.217625568122162</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1916876718843918</v>
+        <v>0.1909751168741541</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2461834038964075</v>
+        <v>0.2443769099973357</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>432941</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>414150</v>
+        <v>414802</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>449084</v>
+        <v>448278</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8580231232568767</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8207811867908898</v>
+        <v>0.8220747832391722</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8900164231416653</v>
+        <v>0.8884177033782078</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>340</v>
@@ -3250,19 +3250,19 @@
         <v>371610</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>349482</v>
+        <v>349099</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>391870</v>
+        <v>391233</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7094966296643378</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6672503648554726</v>
+        <v>0.6665190727406048</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7481796380001104</v>
+        <v>0.7469624659060983</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>749</v>
@@ -3271,19 +3271,19 @@
         <v>804551</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>775184</v>
+        <v>777041</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>831224</v>
+        <v>831957</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7823744318778381</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7538165961035926</v>
+        <v>0.7556230900026644</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8083123281156084</v>
+        <v>0.809024883125846</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>51539</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>38682</v>
+        <v>38646</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>66420</v>
+        <v>67653</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1590473794946115</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1193724718609092</v>
+        <v>0.1192612664947849</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2049710823067309</v>
+        <v>0.2087753073419481</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>83</v>
@@ -3396,19 +3396,19 @@
         <v>89820</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>74293</v>
+        <v>73349</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>106711</v>
+        <v>106229</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2633873701245093</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2178539275420244</v>
+        <v>0.2150869803422423</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3129181681562287</v>
+        <v>0.3115047958523999</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>131</v>
@@ -3417,19 +3417,19 @@
         <v>141359</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>119626</v>
+        <v>120359</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>163761</v>
+        <v>163773</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2125488725461309</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1798708582996424</v>
+        <v>0.1809724024547208</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2462322527455912</v>
+        <v>0.246251197970359</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>272507</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>257626</v>
+        <v>256393</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>285364</v>
+        <v>285400</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8409526205053885</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.795028917693269</v>
+        <v>0.7912246926580518</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8806275281390907</v>
+        <v>0.880738733505215</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>234</v>
@@ -3467,19 +3467,19 @@
         <v>251200</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>234309</v>
+        <v>234791</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>266727</v>
+        <v>267671</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7366126298754907</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6870818318437713</v>
+        <v>0.6884952041476</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7821460724579756</v>
+        <v>0.7849130196577576</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>505</v>
@@ -3488,19 +3488,19 @@
         <v>523707</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>501305</v>
+        <v>501293</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>545440</v>
+        <v>544707</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.787451127453869</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7537677472544091</v>
+        <v>0.7537488020296411</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8201291417003579</v>
+        <v>0.8190275975452792</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>61410</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>47957</v>
+        <v>47582</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>77002</v>
+        <v>76954</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1669592782499227</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1303837272004756</v>
+        <v>0.1293639480135544</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2093516106536337</v>
+        <v>0.2092208425120034</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>132</v>
@@ -3613,19 +3613,19 @@
         <v>134606</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>117503</v>
+        <v>115496</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>153881</v>
+        <v>153217</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3478212747776493</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3036267636649806</v>
+        <v>0.2984419329561456</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3976279155087069</v>
+        <v>0.3959124546304544</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>189</v>
@@ -3634,19 +3634,19 @@
         <v>196015</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>171516</v>
+        <v>172099</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>220716</v>
+        <v>218800</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2596886212245569</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2272307813272017</v>
+        <v>0.2280037993495316</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2924136835066556</v>
+        <v>0.2898750657214988</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>306403</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>290811</v>
+        <v>290859</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>319856</v>
+        <v>320231</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8330407217500773</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7906483893463664</v>
+        <v>0.7907791574879967</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8696162727995244</v>
+        <v>0.8706360519864453</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>237</v>
@@ -3684,19 +3684,19 @@
         <v>252391</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>233116</v>
+        <v>233780</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>269494</v>
+        <v>271501</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6521787252223507</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.602372084491293</v>
+        <v>0.6040875453695456</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6963732363350194</v>
+        <v>0.7015580670438544</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>519</v>
@@ -3705,19 +3705,19 @@
         <v>558794</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>534093</v>
+        <v>536009</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>583293</v>
+        <v>582710</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7403113787754431</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7075863164933447</v>
+        <v>0.7101249342785012</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7727692186727985</v>
+        <v>0.7719962006504684</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>45941</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>34464</v>
+        <v>34124</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59041</v>
+        <v>59945</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.21607491085412</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1620956383324711</v>
+        <v>0.1604928561453744</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2776880864096439</v>
+        <v>0.2819375565935091</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>97</v>
@@ -3830,19 +3830,19 @@
         <v>101665</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>84502</v>
+        <v>87632</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>116318</v>
+        <v>117157</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4629763346747121</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3848136272380667</v>
+        <v>0.3990707845777724</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5297038787696028</v>
+        <v>0.5335249567338344</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>139</v>
@@ -3851,19 +3851,19 @@
         <v>147607</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>128549</v>
+        <v>127610</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>168002</v>
+        <v>168938</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3415172908602185</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2974239835362606</v>
+        <v>0.2952514200128932</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3887059750599628</v>
+        <v>0.3908705463735567</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>166677</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>153577</v>
+        <v>152673</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>178154</v>
+        <v>178494</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.78392508914588</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7223119135903563</v>
+        <v>0.7180624434064907</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8379043616675289</v>
+        <v>0.8395071438546253</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>115</v>
@@ -3901,19 +3901,19 @@
         <v>117926</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>103273</v>
+        <v>102434</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>135089</v>
+        <v>131959</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5370236653252879</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4702961212303972</v>
+        <v>0.4664750432661656</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6151863727619333</v>
+        <v>0.6009292154222275</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>269</v>
@@ -3922,19 +3922,19 @@
         <v>284602</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>264207</v>
+        <v>263271</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>303660</v>
+        <v>304599</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6584827091397815</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6112940249400373</v>
+        <v>0.6091294536264433</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7025760164637397</v>
+        <v>0.7047485799871066</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>67302</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>54494</v>
+        <v>54337</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>81980</v>
+        <v>83927</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.246427099365097</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1995294120766518</v>
+        <v>0.1989549360612956</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3001688124031753</v>
+        <v>0.307298608043609</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>80</v>
@@ -4047,19 +4047,19 @@
         <v>81493</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>65846</v>
+        <v>65701</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>96342</v>
+        <v>95860</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2910128278453296</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2351391926375671</v>
+        <v>0.23462130176979</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3440412367924324</v>
+        <v>0.3423203909376497</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>144</v>
@@ -4068,19 +4068,19 @@
         <v>148795</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>127086</v>
+        <v>130660</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>168219</v>
+        <v>170252</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2689987678217164</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2297513449331177</v>
+        <v>0.2362131043155855</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3041134947245362</v>
+        <v>0.3077892334719259</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>205811</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>191133</v>
+        <v>189186</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>218619</v>
+        <v>218776</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.753572900634903</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6998311875968246</v>
+        <v>0.692701391956391</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8004705879233479</v>
+        <v>0.8010450639387043</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>189</v>
@@ -4118,19 +4118,19 @@
         <v>198538</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>183689</v>
+        <v>184171</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>214185</v>
+        <v>214330</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7089871721546704</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6559587632075677</v>
+        <v>0.6576796090623503</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7648608073624334</v>
+        <v>0.7653786982302101</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>385</v>
@@ -4139,19 +4139,19 @@
         <v>404349</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>384925</v>
+        <v>382892</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>426058</v>
+        <v>422484</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7310012321782835</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6958865052754639</v>
+        <v>0.6922107665280742</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7702486550668827</v>
+        <v>0.763786895684415</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>99770</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>81096</v>
+        <v>80551</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>120144</v>
+        <v>120101</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1507470707608058</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1225323330856911</v>
+        <v>0.1217081491015774</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1815310143443061</v>
+        <v>0.1814666984948124</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>167</v>
@@ -4264,19 +4264,19 @@
         <v>186302</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>159730</v>
+        <v>160509</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>210362</v>
+        <v>210987</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2688799084663774</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2305305355406634</v>
+        <v>0.2316548591249297</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3036050107027313</v>
+        <v>0.3045074485433931</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>258</v>
@@ -4285,19 +4285,19 @@
         <v>286071</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>257124</v>
+        <v>255322</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>318362</v>
+        <v>317263</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2111671050855168</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1897995290486117</v>
+        <v>0.1884691892279099</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2350030544320557</v>
+        <v>0.2341917713567442</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>562065</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>541691</v>
+        <v>541734</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>580739</v>
+        <v>581284</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8492529292391942</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.818468985655694</v>
+        <v>0.8185333015051877</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8774676669143102</v>
+        <v>0.8782918508984228</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>468</v>
@@ -4335,19 +4335,19 @@
         <v>506579</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>482519</v>
+        <v>481894</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>533151</v>
+        <v>532372</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7311200915336227</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6963949892972687</v>
+        <v>0.6954925514566068</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7694694644593365</v>
+        <v>0.76834514087507</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>994</v>
@@ -4356,19 +4356,19 @@
         <v>1068645</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1036354</v>
+        <v>1037453</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1097592</v>
+        <v>1099394</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7888328949144833</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7649969455679443</v>
+        <v>0.7658082286432557</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8102004709513883</v>
+        <v>0.8115308107720901</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>185743</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>164500</v>
+        <v>161059</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>213228</v>
+        <v>211261</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2399715265322784</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2125265427336967</v>
+        <v>0.2080806764967988</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2754801741159936</v>
+        <v>0.2729388879126612</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>238</v>
@@ -4481,19 +4481,19 @@
         <v>262549</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>232388</v>
+        <v>235107</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>288577</v>
+        <v>290666</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3186842638046075</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2820745475761197</v>
+        <v>0.2853755158002721</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3502773660796472</v>
+        <v>0.3528126397725218</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>404</v>
@@ -4502,19 +4502,19 @@
         <v>448292</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>410176</v>
+        <v>407777</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>488018</v>
+        <v>488884</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2805552428062191</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2567009368148589</v>
+        <v>0.2551996324350284</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3054166219008426</v>
+        <v>0.3059589181857319</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>588279</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>560794</v>
+        <v>562761</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>609522</v>
+        <v>612963</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7600284734677215</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7245198258840062</v>
+        <v>0.7270611120873387</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7874734572663031</v>
+        <v>0.7919193235032012</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>519</v>
@@ -4552,19 +4552,19 @@
         <v>561304</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>535276</v>
+        <v>533187</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>591465</v>
+        <v>588746</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6813157361953925</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6497226339203528</v>
+        <v>0.6471873602274781</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7179254524238803</v>
+        <v>0.7146244841997278</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1065</v>
@@ -4573,19 +4573,19 @@
         <v>1149583</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1109857</v>
+        <v>1108991</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1187699</v>
+        <v>1190098</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7194447571937809</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6945833780991572</v>
+        <v>0.6940410818142685</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7432990631851411</v>
+        <v>0.7448003675649718</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>643427</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>594849</v>
+        <v>594927</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>686622</v>
+        <v>694674</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1887054780622702</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1744584313400576</v>
+        <v>0.174481370876464</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2013739416689959</v>
+        <v>0.203735477094097</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1032</v>
@@ -4698,19 +4698,19 @@
         <v>1113667</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1057388</v>
+        <v>1057823</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1173466</v>
+        <v>1166055</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.313316710540547</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2974834022449004</v>
+        <v>0.2976058103708598</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3301404297280862</v>
+        <v>0.3280554706314672</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1619</v>
@@ -4719,19 +4719,19 @@
         <v>1757093</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1689360</v>
+        <v>1685715</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1840497</v>
+        <v>1834409</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2523061766253672</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2425802104768902</v>
+        <v>0.2420568086695676</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2642823074072024</v>
+        <v>0.2634081510032076</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>2766260</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2723065</v>
+        <v>2715013</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2814838</v>
+        <v>2814760</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8112945219377298</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7986260583310041</v>
+        <v>0.7962645229059032</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8255415686599425</v>
+        <v>0.825518629123536</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2262</v>
@@ -4769,19 +4769,19 @@
         <v>2440777</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2380978</v>
+        <v>2388389</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2497056</v>
+        <v>2496621</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.686683289459453</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6698595702719138</v>
+        <v>0.6719445293685328</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7025165977550997</v>
+        <v>0.7023941896291402</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4868</v>
@@ -4790,19 +4790,19 @@
         <v>5207038</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5123634</v>
+        <v>5129722</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5274771</v>
+        <v>5278416</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7476938233746327</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7357176925927976</v>
+        <v>0.7365918489967924</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7574197895231098</v>
+        <v>0.7579431913304323</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>59696</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>46089</v>
+        <v>47059</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>75581</v>
+        <v>75362</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2062067383170836</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.159204750187061</v>
+        <v>0.1625546003637666</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2610787873380288</v>
+        <v>0.2603229866848458</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>101</v>
@@ -5159,19 +5159,19 @@
         <v>108205</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>91120</v>
+        <v>91497</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>124051</v>
+        <v>125387</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3772153499005544</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3176553313115628</v>
+        <v>0.3189709154711045</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4324581394091881</v>
+        <v>0.4371134675261946</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>156</v>
@@ -5180,19 +5180,19 @@
         <v>167901</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>146316</v>
+        <v>146308</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>194532</v>
+        <v>191902</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2913187812283347</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2538667268714371</v>
+        <v>0.2538535010230625</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3375251527702132</v>
+        <v>0.3329616080069808</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>229800</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>213915</v>
+        <v>214134</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>243407</v>
+        <v>242437</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7937932616829163</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7389212126619715</v>
+        <v>0.7396770133151542</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8407952498129392</v>
+        <v>0.8374453996362334</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>174</v>
@@ -5230,19 +5230,19 @@
         <v>178647</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>162801</v>
+        <v>161465</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>195732</v>
+        <v>195355</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6227846500994455</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5675418605908119</v>
+        <v>0.5628865324738055</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6823446686884372</v>
+        <v>0.6810290845288955</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>381</v>
@@ -5251,19 +5251,19 @@
         <v>408448</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>381817</v>
+        <v>384447</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>430033</v>
+        <v>430041</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7086812187716653</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6624748472297868</v>
+        <v>0.6670383919930192</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7461332731285629</v>
+        <v>0.7461464989769375</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>65675</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>51780</v>
+        <v>51256</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>82582</v>
+        <v>81396</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1306763415645421</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1030297493222048</v>
+        <v>0.101985879891878</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1643172332673672</v>
+        <v>0.1619576442536433</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>97</v>
@@ -5376,19 +5376,19 @@
         <v>112694</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>94690</v>
+        <v>93814</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>133391</v>
+        <v>134425</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.216784258575296</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1821501330901543</v>
+        <v>0.1804642646160891</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2565971878768364</v>
+        <v>0.2585862966640111</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>161</v>
@@ -5397,19 +5397,19 @@
         <v>178369</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>154090</v>
+        <v>153479</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>204880</v>
+        <v>205505</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1744575758629142</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1507106302624039</v>
+        <v>0.1501126978809859</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2003865214682633</v>
+        <v>0.2009977979182763</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>436900</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>419993</v>
+        <v>421179</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>450795</v>
+        <v>451319</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8693236584354579</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8356827667326333</v>
+        <v>0.8380423557463567</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8969702506777953</v>
+        <v>0.8980141201081228</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>384</v>
@@ -5447,19 +5447,19 @@
         <v>407152</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>386455</v>
+        <v>385421</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>425156</v>
+        <v>426032</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.783215741424704</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7434028121231634</v>
+        <v>0.7414137033359893</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8178498669098456</v>
+        <v>0.819535735383911</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>795</v>
@@ -5468,19 +5468,19 @@
         <v>844053</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>817542</v>
+        <v>816917</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>868332</v>
+        <v>868943</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8255424241370858</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7996134785317366</v>
+        <v>0.7990022020817238</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8492893697375958</v>
+        <v>0.8498873021190141</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>41840</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30515</v>
+        <v>30644</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>53850</v>
+        <v>54517</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1324511933087682</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09660035876964744</v>
+        <v>0.09700850566326492</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.17046925208277</v>
+        <v>0.1725813334597269</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>67</v>
@@ -5593,19 +5593,19 @@
         <v>75025</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>59174</v>
+        <v>60861</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>93027</v>
+        <v>93130</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2265184623358709</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1786631535222704</v>
+        <v>0.1837552220311907</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2808727310231812</v>
+        <v>0.2811831085727965</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>114</v>
@@ -5614,19 +5614,19 @@
         <v>116865</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>97674</v>
+        <v>96818</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>136016</v>
+        <v>136822</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1805980372846779</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1509422177553519</v>
+        <v>0.1496194472565132</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.210194341047084</v>
+        <v>0.2114399442289881</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>274051</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>262041</v>
+        <v>261374</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>285376</v>
+        <v>285247</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8675488066912318</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8295307479172299</v>
+        <v>0.8274186665402733</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9033996412303525</v>
+        <v>0.9029914943367352</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>260</v>
@@ -5664,19 +5664,19 @@
         <v>256182</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>238180</v>
+        <v>238077</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>272033</v>
+        <v>270346</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7734815376641291</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.719127268976819</v>
+        <v>0.718816891427204</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8213368464777298</v>
+        <v>0.8162447779688095</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>545</v>
@@ -5685,19 +5685,19 @@
         <v>530233</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>511082</v>
+        <v>510276</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>549424</v>
+        <v>550280</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8194019627153221</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.789805658952916</v>
+        <v>0.7885600557710118</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.849057782244648</v>
+        <v>0.8503805527434869</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>82175</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>66111</v>
+        <v>67996</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>97925</v>
+        <v>97502</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2233339187005882</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1796752472189543</v>
+        <v>0.1847985625154868</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2661385115894094</v>
+        <v>0.2649870878174468</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>129</v>
@@ -5810,19 +5810,19 @@
         <v>143041</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>124151</v>
+        <v>124156</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>164463</v>
+        <v>162878</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3722640304622354</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3231029307812989</v>
+        <v>0.3231174216017816</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4280148441733538</v>
+        <v>0.4238920788851223</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>207</v>
@@ -5831,19 +5831,19 @@
         <v>225216</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>200233</v>
+        <v>198843</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>252297</v>
+        <v>253737</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2994122587334255</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2661987986610682</v>
+        <v>0.2643510911752048</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3354144728607458</v>
+        <v>0.3373292126044594</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>285774</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>270024</v>
+        <v>270447</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>301838</v>
+        <v>299953</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7766660812994118</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7338614884105907</v>
+        <v>0.7350129121825533</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8203247527810462</v>
+        <v>0.8152014374845131</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>226</v>
@@ -5881,19 +5881,19 @@
         <v>241204</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>219782</v>
+        <v>221367</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>260094</v>
+        <v>260089</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6277359695377647</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5719851558266462</v>
+        <v>0.5761079211148776</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6768970692187011</v>
+        <v>0.6768825783982183</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>500</v>
@@ -5902,19 +5902,19 @@
         <v>526978</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>499897</v>
+        <v>498457</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>551961</v>
+        <v>553351</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7005877412665744</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6645855271392542</v>
+        <v>0.6626707873955406</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7338012013389318</v>
+        <v>0.7356489088247953</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>45275</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>34320</v>
+        <v>35368</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>57696</v>
+        <v>59886</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2192874270111861</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1662273258708028</v>
+        <v>0.1713039625254554</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.279448370304851</v>
+        <v>0.2900524254926349</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>61</v>
@@ -6027,19 +6027,19 @@
         <v>63888</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>50162</v>
+        <v>51688</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>78194</v>
+        <v>77818</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2922778333570455</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2294820023042788</v>
+        <v>0.2364633138372539</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.357725677839053</v>
+        <v>0.3560038327518332</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>107</v>
@@ -6048,19 +6048,19 @@
         <v>109163</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>92335</v>
+        <v>91049</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>128592</v>
+        <v>128157</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.256823474976997</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2172319249388242</v>
+        <v>0.2142068224186527</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3025329768365122</v>
+        <v>0.3015084693691206</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>161190</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>148769</v>
+        <v>146579</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>172145</v>
+        <v>171097</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7807125729888139</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.720551629695149</v>
+        <v>0.7099475745073647</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8337726741291971</v>
+        <v>0.8286960374745443</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>162</v>
@@ -6098,19 +6098,19 @@
         <v>154699</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>140393</v>
+        <v>140769</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>168425</v>
+        <v>166899</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7077221666429545</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6422743221609473</v>
+        <v>0.6439961672481668</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7705179976957216</v>
+        <v>0.7635366861627459</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>323</v>
@@ -6119,19 +6119,19 @@
         <v>315889</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>296460</v>
+        <v>296895</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>332717</v>
+        <v>334003</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.743176525023003</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6974670231634881</v>
+        <v>0.6984915306308794</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7827680750611763</v>
+        <v>0.7857931775813475</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>57547</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>44733</v>
+        <v>44599</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>71839</v>
+        <v>72087</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2187066097048443</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1700086517121275</v>
+        <v>0.1694999435191973</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2730256315857362</v>
+        <v>0.2739664682053671</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>75</v>
@@ -6244,19 +6244,19 @@
         <v>83592</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>68621</v>
+        <v>69034</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>101242</v>
+        <v>98839</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3084818617848373</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2532321925285213</v>
+        <v>0.2547556611555472</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3736142684084063</v>
+        <v>0.3647468770264179</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>134</v>
@@ -6265,19 +6265,19 @@
         <v>141139</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>123048</v>
+        <v>121190</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>162975</v>
+        <v>162032</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2642545240588097</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2303825822570097</v>
+        <v>0.2269035626125946</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3051377948816856</v>
+        <v>0.3033724333287171</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>205576</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>191284</v>
+        <v>191036</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>218390</v>
+        <v>218524</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7812933902951558</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7269743684142643</v>
+        <v>0.726033531794633</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8299913482878725</v>
+        <v>0.8305000564808028</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>186</v>
@@ -6315,19 +6315,19 @@
         <v>187388</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>169738</v>
+        <v>172141</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>202359</v>
+        <v>201946</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6915181382151626</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6263857315915936</v>
+        <v>0.6352531229735821</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7467678074714788</v>
+        <v>0.7452443388444527</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>386</v>
@@ -6336,19 +6336,19 @@
         <v>392964</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>371128</v>
+        <v>372071</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>411055</v>
+        <v>412913</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7357454759411903</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6948622051183144</v>
+        <v>0.6966275666712828</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7696174177429903</v>
+        <v>0.7730964373874053</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>150027</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>127634</v>
+        <v>127859</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>171166</v>
+        <v>173691</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2309319273214043</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1964631519078937</v>
+        <v>0.1968092006246051</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.263470684125971</v>
+        <v>0.267356447019115</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>191</v>
@@ -6461,19 +6461,19 @@
         <v>215593</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>190817</v>
+        <v>193489</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>239112</v>
+        <v>240141</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3132861475457916</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2772838170760529</v>
+        <v>0.2811667832760346</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3474621307021554</v>
+        <v>0.348957608690102</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>326</v>
@@ -6482,19 +6482,19 @@
         <v>365620</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>333362</v>
+        <v>331006</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>399376</v>
+        <v>400784</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2732942322624196</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2491819458258118</v>
+        <v>0.2474207428751328</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2985263150083042</v>
+        <v>0.2995785167971119</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>499633</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>478494</v>
+        <v>475969</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>522026</v>
+        <v>521801</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7690680726785957</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7365293158740289</v>
+        <v>0.732643552980885</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8035368480921065</v>
+        <v>0.8031907993753949</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>452</v>
@@ -6532,19 +6532,19 @@
         <v>472573</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>449054</v>
+        <v>448025</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>497349</v>
+        <v>494677</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6867138524542085</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6525378692978447</v>
+        <v>0.651042391309898</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7227161829239473</v>
+        <v>0.7188332167239656</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>892</v>
@@ -6553,19 +6553,19 @@
         <v>972206</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>938450</v>
+        <v>937042</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1004464</v>
+        <v>1006820</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7267057677375803</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7014736849916958</v>
+        <v>0.7004214832028881</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7508180541741881</v>
+        <v>0.7525792571248672</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>123091</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>103755</v>
+        <v>104202</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>144683</v>
+        <v>143847</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1589350488957426</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1339691067816578</v>
+        <v>0.1345460829443725</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1868153242262121</v>
+        <v>0.1857360335281376</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>182</v>
@@ -6678,19 +6678,19 @@
         <v>212735</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>187693</v>
+        <v>187311</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>242134</v>
+        <v>239736</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2587690354669502</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2283082010843996</v>
+        <v>0.2278434278073771</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2945294618064718</v>
+        <v>0.2916128455996689</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>304</v>
@@ -6699,19 +6699,19 @@
         <v>335826</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>302978</v>
+        <v>299270</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>370345</v>
+        <v>367300</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2103413445066415</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1897672475283615</v>
+        <v>0.1874451633781723</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2319623161794894</v>
+        <v>0.2300547332459489</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>651380</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>629788</v>
+        <v>630624</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>670716</v>
+        <v>670269</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8410649511042574</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8131846757737882</v>
+        <v>0.8142639664718623</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8660308932183424</v>
+        <v>0.8654539170556275</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>569</v>
@@ -6749,19 +6749,19 @@
         <v>609370</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>579971</v>
+        <v>582369</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>634412</v>
+        <v>634794</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7412309645330498</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.705470538193528</v>
+        <v>0.7083871544003308</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7716917989156002</v>
+        <v>0.7721565721926227</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1193</v>
@@ -6770,19 +6770,19 @@
         <v>1260750</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1226231</v>
+        <v>1229276</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1293598</v>
+        <v>1297306</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7896586554933585</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7680376838205106</v>
+        <v>0.7699452667540509</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8102327524716385</v>
+        <v>0.8125548366218277</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>625326</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>579631</v>
+        <v>577050</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>674571</v>
+        <v>669355</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1855770593163876</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1720163303739993</v>
+        <v>0.1712501373155456</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2001913144920861</v>
+        <v>0.1986435844570186</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>903</v>
@@ -6895,19 +6895,19 @@
         <v>1014774</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>960271</v>
+        <v>958393</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1075085</v>
+        <v>1073564</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2881251362814253</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.27265021915454</v>
+        <v>0.2721171031673614</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3052493027386323</v>
+        <v>0.3048176084556649</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1509</v>
@@ -6916,19 +6916,19 @@
         <v>1640099</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1565158</v>
+        <v>1573436</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1710933</v>
+        <v>1717580</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2379846585917866</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2271103144975584</v>
+        <v>0.2283115880945399</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2482629598699192</v>
+        <v>0.2492274347496997</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>2744304</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2695059</v>
+        <v>2700275</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2789999</v>
+        <v>2792580</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8144229406836124</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7998086855079141</v>
+        <v>0.8013564155429814</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8279836696260008</v>
+        <v>0.8287498626844544</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2413</v>
@@ -6966,19 +6966,19 @@
         <v>2507215</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2446904</v>
+        <v>2448425</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2561718</v>
+        <v>2563596</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7118748637185747</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6947506972613677</v>
+        <v>0.6951823915443349</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7273497808454599</v>
+        <v>0.7278828968326384</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5015</v>
@@ -6987,19 +6987,19 @@
         <v>5251519</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5180685</v>
+        <v>5174038</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5326460</v>
+        <v>5318182</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7620153414082135</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7517370401300809</v>
+        <v>0.7507725652503007</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7728896855024416</v>
+        <v>0.7716884119054603</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>89913</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>74686</v>
+        <v>73648</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>106705</v>
+        <v>107534</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2819969017200933</v>
+        <v>0.2819969017200934</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.234238934892518</v>
+        <v>0.2309837424756063</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.334661601416593</v>
+        <v>0.3372609412344885</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>280</v>
@@ -7356,19 +7356,19 @@
         <v>154836</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>139490</v>
+        <v>139866</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>170506</v>
+        <v>170242</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4898936713026404</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4413395064169053</v>
+        <v>0.4425280332148833</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5394717686045568</v>
+        <v>0.5386349493193603</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>382</v>
@@ -7377,19 +7377,19 @@
         <v>244750</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>224622</v>
+        <v>224079</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>268322</v>
+        <v>268935</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3854893785984768</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3537872478493698</v>
+        <v>0.3529323394864352</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4226163662363202</v>
+        <v>0.4235819612406466</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>228932</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>212140</v>
+        <v>211311</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>244159</v>
+        <v>245197</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7180030982799066</v>
+        <v>0.7180030982799067</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.665338398583407</v>
+        <v>0.6627390587655115</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.765761065107482</v>
+        <v>0.7690162575243936</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>258</v>
@@ -7427,19 +7427,19 @@
         <v>161225</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>145555</v>
+        <v>145819</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>176571</v>
+        <v>176195</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5101063286973596</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4605282313954431</v>
+        <v>0.4613650506806396</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5586604935830946</v>
+        <v>0.5574719667851167</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>487</v>
@@ -7448,19 +7448,19 @@
         <v>390156</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>366584</v>
+        <v>365971</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>410284</v>
+        <v>410827</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6145106214015233</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5773836337636797</v>
+        <v>0.5764180387593534</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6462127521506301</v>
+        <v>0.6470676605135649</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>126195</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>105503</v>
+        <v>105113</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>150185</v>
+        <v>149680</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2378138712481807</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1988204790324192</v>
+        <v>0.1980853132830104</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2830219707802532</v>
+        <v>0.2820703719637626</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>276</v>
@@ -7573,19 +7573,19 @@
         <v>187404</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>167457</v>
+        <v>168521</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>206874</v>
+        <v>206885</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3429199987909708</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3064214138975647</v>
+        <v>0.3083682159461515</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3785484027668993</v>
+        <v>0.3785684104347257</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>386</v>
@@ -7594,19 +7594,19 @@
         <v>313599</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>286292</v>
+        <v>284102</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>341642</v>
+        <v>344944</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2911401169899492</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2657884510439476</v>
+        <v>0.2637558641266425</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3171752636945131</v>
+        <v>0.3202406914763524</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>404452</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>380462</v>
+        <v>380967</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>425144</v>
+        <v>425534</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7621861287518192</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7169780292197467</v>
+        <v>0.7179296280362374</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8011795209675809</v>
+        <v>0.8019146867169896</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>441</v>
@@ -7644,19 +7644,19 @@
         <v>359090</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>339620</v>
+        <v>339609</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>379037</v>
+        <v>377973</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6570800012090292</v>
+        <v>0.6570800012090291</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6214515972331007</v>
+        <v>0.6214315895652743</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6935785861024351</v>
+        <v>0.6916317840538484</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>713</v>
@@ -7665,19 +7665,19 @@
         <v>763542</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>735499</v>
+        <v>732197</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>790849</v>
+        <v>793039</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7088598830100509</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6828247363054868</v>
+        <v>0.6797593085236475</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7342115489560525</v>
+        <v>0.7362441358733574</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>105584</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>91070</v>
+        <v>89782</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>120463</v>
+        <v>121165</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3341325815074257</v>
+        <v>0.3341325815074256</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2882023163181048</v>
+        <v>0.2841269836722191</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3812216450515417</v>
+        <v>0.3834406838648991</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>235</v>
@@ -7790,19 +7790,19 @@
         <v>131569</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>117216</v>
+        <v>116803</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>146457</v>
+        <v>145586</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3691803265943969</v>
+        <v>0.369180326594397</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.32890648214193</v>
+        <v>0.3277467984956541</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4109553144669635</v>
+        <v>0.408511541496835</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>371</v>
@@ -7811,19 +7811,19 @@
         <v>237153</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>217011</v>
+        <v>215490</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>259576</v>
+        <v>261029</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3527090703205371</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3227530091451627</v>
+        <v>0.3204913930592259</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3860589960358801</v>
+        <v>0.3882191046640102</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>210409</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>195530</v>
+        <v>194828</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>224923</v>
+        <v>226211</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6658674184925742</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6187783549484585</v>
+        <v>0.616559316135101</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7117976836818952</v>
+        <v>0.7158730163277809</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>301</v>
@@ -7861,19 +7861,19 @@
         <v>224812</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>209924</v>
+        <v>210795</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>239165</v>
+        <v>239578</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6308196734056031</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5890446855330366</v>
+        <v>0.5914884585031649</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.67109351785807</v>
+        <v>0.6722532015043459</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>525</v>
@@ -7882,19 +7882,19 @@
         <v>435222</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>412799</v>
+        <v>411346</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>455364</v>
+        <v>456885</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6472909296794631</v>
+        <v>0.647290929679463</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.61394100396412</v>
+        <v>0.61178089533599</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6772469908548372</v>
+        <v>0.6795086069407741</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>109833</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>90912</v>
+        <v>88680</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>132551</v>
+        <v>131285</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2955937315447356</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2446713612513335</v>
+        <v>0.2386648627548095</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3567352999813236</v>
+        <v>0.3533280182718372</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>312</v>
@@ -8007,19 +8007,19 @@
         <v>182991</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>164113</v>
+        <v>163393</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>203123</v>
+        <v>201660</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4341627876507951</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3893728317454635</v>
+        <v>0.3876641345825328</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.481927925912691</v>
+        <v>0.4784564012083601</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>421</v>
@@ -8028,19 +8028,19 @@
         <v>292824</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>263521</v>
+        <v>265503</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>318857</v>
+        <v>324156</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3692389743432367</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3322890545764242</v>
+        <v>0.3347880513198482</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4020657555637698</v>
+        <v>0.4087472154039993</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>261734</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>239016</v>
+        <v>240282</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>280655</v>
+        <v>282887</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7044062684552646</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6432647000186763</v>
+        <v>0.6466719817281628</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7553286387486664</v>
+        <v>0.7613351372451905</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>286</v>
@@ -8078,19 +8078,19 @@
         <v>238489</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>218357</v>
+        <v>219820</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>257367</v>
+        <v>258087</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5658372123492048</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.518072074087309</v>
+        <v>0.5215435987916399</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6106271682545364</v>
+        <v>0.6123358654174671</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>468</v>
@@ -8099,19 +8099,19 @@
         <v>500223</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>474190</v>
+        <v>468891</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>529526</v>
+        <v>527544</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6307610256567633</v>
+        <v>0.6307610256567634</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5979342444362306</v>
+        <v>0.5912527845960007</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.667710945423576</v>
+        <v>0.6652119486801518</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>46345</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>37176</v>
+        <v>37283</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>56154</v>
+        <v>56466</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2253423746387554</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1807616422508022</v>
+        <v>0.1812779675244432</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2730354388596465</v>
+        <v>0.2745539111389958</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>183</v>
@@ -8224,19 +8224,19 @@
         <v>72089</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>62192</v>
+        <v>62857</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>82073</v>
+        <v>81487</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3179254874841538</v>
+        <v>0.3179254874841536</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2742783225147891</v>
+        <v>0.277209165377145</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3619567619193865</v>
+        <v>0.3593704991437662</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>256</v>
@@ -8245,19 +8245,19 @@
         <v>118434</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>104833</v>
+        <v>105358</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>131871</v>
+        <v>134057</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2738910888120112</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2424361889742481</v>
+        <v>0.2436500346253686</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3049658314846363</v>
+        <v>0.3100195234378719</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>159320</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>149511</v>
+        <v>149199</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>168489</v>
+        <v>168382</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7746576253612446</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7269645611403536</v>
+        <v>0.7254460888610045</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8192383577491977</v>
+        <v>0.8187220324755574</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>308</v>
@@ -8295,19 +8295,19 @@
         <v>154660</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>144676</v>
+        <v>145262</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>164557</v>
+        <v>163892</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6820745125158464</v>
+        <v>0.6820745125158462</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6380432380806137</v>
+        <v>0.6406295008562337</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.725721677485211</v>
+        <v>0.7227908346228551</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>514</v>
@@ -8316,19 +8316,19 @@
         <v>313980</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>300543</v>
+        <v>298357</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>327581</v>
+        <v>327056</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7261089111879888</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6950341685153638</v>
+        <v>0.6899804765621282</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7575638110257518</v>
+        <v>0.7563499653746321</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>118278</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>103405</v>
+        <v>103061</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>132606</v>
+        <v>132338</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4369216800329092</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3819794110160453</v>
+        <v>0.3807114041625587</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4898522863829844</v>
+        <v>0.4888604035098132</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>294</v>
@@ -8441,19 +8441,19 @@
         <v>144384</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>129923</v>
+        <v>131604</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>156032</v>
+        <v>157775</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.5474259712809012</v>
+        <v>0.547425971280901</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4925976209494288</v>
+        <v>0.4989708714097095</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5915907123284634</v>
+        <v>0.5982000417136337</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>482</v>
@@ -8462,19 +8462,19 @@
         <v>262661</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>240404</v>
+        <v>242755</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>281288</v>
+        <v>281674</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4914546439306797</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4498089187387841</v>
+        <v>0.4542084874022295</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5263052651813519</v>
+        <v>0.5270274517248074</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>152429</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>138101</v>
+        <v>138369</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>167302</v>
+        <v>167646</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.5630783199670908</v>
+        <v>0.5630783199670909</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5101477136170157</v>
+        <v>0.5111395964901873</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6180205889839544</v>
+        <v>0.6192885958374413</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>166</v>
@@ -8512,19 +8512,19 @@
         <v>119366</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>107718</v>
+        <v>105975</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>133827</v>
+        <v>132146</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.452574028719099</v>
+        <v>0.4525740287190988</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4084092876715367</v>
+        <v>0.4017999582863663</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5074023790505712</v>
+        <v>0.5010291285902906</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>349</v>
@@ -8533,19 +8533,19 @@
         <v>271796</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>253169</v>
+        <v>252783</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>294053</v>
+        <v>291702</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5085453560693204</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4736947348186482</v>
+        <v>0.4729725482751926</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5501910812612159</v>
+        <v>0.5457915125977708</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>193093</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>166345</v>
+        <v>166159</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>220622</v>
+        <v>222718</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2686765917723217</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2314579494721224</v>
+        <v>0.2311987173407888</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.306981018351114</v>
+        <v>0.3098979543796266</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>366</v>
@@ -8658,19 +8658,19 @@
         <v>270983</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>246614</v>
+        <v>245169</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>295386</v>
+        <v>293484</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3519013659771623</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3202563264597936</v>
+        <v>0.3183798535345386</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3835923821749508</v>
+        <v>0.381121847650441</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>534</v>
@@ -8679,19 +8679,19 @@
         <v>464076</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>430724</v>
+        <v>426655</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>500492</v>
+        <v>501502</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3117248409545056</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2893222613761038</v>
+        <v>0.2865892276180158</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3361862925494852</v>
+        <v>0.3368644258120472</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>525590</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>498061</v>
+        <v>495965</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>552338</v>
+        <v>552524</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.7313234082276782</v>
+        <v>0.7313234082276783</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.693018981648886</v>
+        <v>0.6901020456203734</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7685420505278777</v>
+        <v>0.7688012826592112</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>591</v>
@@ -8729,19 +8729,19 @@
         <v>499070</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>474667</v>
+        <v>476569</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>523439</v>
+        <v>524884</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.6480986340228377</v>
+        <v>0.6480986340228376</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6164076178250493</v>
+        <v>0.6188781523495595</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6797436735402066</v>
+        <v>0.6816201464654613</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1021</v>
@@ -8750,19 +8750,19 @@
         <v>1024659</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>988243</v>
+        <v>987233</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1058011</v>
+        <v>1062080</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.6882751590454944</v>
+        <v>0.6882751590454945</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6638137074505148</v>
+        <v>0.6631355741879528</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7106777386238962</v>
+        <v>0.7134107723819844</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>144071</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>124818</v>
+        <v>124728</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>166528</v>
+        <v>168857</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1807591952912931</v>
+        <v>0.1807591952912932</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1566031739992581</v>
+        <v>0.156490656610733</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2089348304996858</v>
+        <v>0.2118575115825016</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>352</v>
@@ -8875,19 +8875,19 @@
         <v>240838</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>218988</v>
+        <v>218203</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>262934</v>
+        <v>263698</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2902274578230005</v>
+        <v>0.2902274578230006</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2638968692907566</v>
+        <v>0.2629509616138205</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3168545362125803</v>
+        <v>0.3177750435750542</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>516</v>
@@ -8896,19 +8896,19 @@
         <v>384909</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>352829</v>
+        <v>354698</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>417763</v>
+        <v>418196</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2365965925727872</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2168775542368459</v>
+        <v>0.2180266802044407</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2567913372710072</v>
+        <v>0.2570576167214288</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>652962</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>630505</v>
+        <v>628176</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>672215</v>
+        <v>672305</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8192408047087067</v>
+        <v>0.8192408047087069</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7910651695003141</v>
+        <v>0.7881424884174985</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8433968260007418</v>
+        <v>0.8435093433892669</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>708</v>
@@ -8946,19 +8946,19 @@
         <v>588987</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>566891</v>
+        <v>566127</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>610837</v>
+        <v>611622</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7097725421769993</v>
+        <v>0.7097725421769996</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6831454637874195</v>
+        <v>0.6822249564249455</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7361031307092436</v>
+        <v>0.7370490383861795</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1305</v>
@@ -8967,19 +8967,19 @@
         <v>1241948</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1209094</v>
+        <v>1208661</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1274028</v>
+        <v>1272159</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7634034074272127</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.743208662728993</v>
+        <v>0.7429423832785712</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7831224457631542</v>
+        <v>0.7819733197955593</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>933312</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>878465</v>
+        <v>879353</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>986754</v>
+        <v>988764</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2644588154937038</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2489176637320382</v>
+        <v>0.2491692203955087</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2796016931752824</v>
+        <v>0.2801714503891268</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2298</v>
@@ -9092,19 +9092,19 @@
         <v>1385094</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1328015</v>
+        <v>1336728</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1427662</v>
+        <v>1440582</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.3712598008806118</v>
+        <v>0.3712598008806117</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3559603317005495</v>
+        <v>0.3582958653595232</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.382669681052642</v>
+        <v>0.3861327028256145</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3348</v>
@@ -9113,19 +9113,19 @@
         <v>2318406</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2236835</v>
+        <v>2238993</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2388321</v>
+        <v>2390384</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3193425760462913</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3081067402087963</v>
+        <v>0.3084040983296282</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3289728541307135</v>
+        <v>0.3292569966909226</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>2595828</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2542386</v>
+        <v>2540376</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2650675</v>
+        <v>2649787</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7355411845062962</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7203983068247176</v>
+        <v>0.7198285496108731</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7510823362679618</v>
+        <v>0.7508307796044913</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3059</v>
@@ -9163,19 +9163,19 @@
         <v>2345700</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2303132</v>
+        <v>2290212</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2402779</v>
+        <v>2394066</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6287401991193883</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6173303189473581</v>
+        <v>0.6138672971743856</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6440396682994507</v>
+        <v>0.6417041346404769</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5382</v>
@@ -9184,19 +9184,19 @@
         <v>4941528</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4871613</v>
+        <v>4869550</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5023099</v>
+        <v>5020941</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6806574239537088</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6710271458692866</v>
+        <v>0.6707430033090775</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6918932597912035</v>
+        <v>0.6915959016703718</v>
       </c>
     </row>
     <row r="30">
